--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3780.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3780.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.653934089304189</v>
+        <v>4.469106674194336</v>
       </c>
       <c r="B1">
-        <v>2.599591255640478</v>
+        <v>3.989879369735718</v>
       </c>
       <c r="C1">
-        <v>2.878027974259143</v>
+        <v>3.478955268859863</v>
       </c>
       <c r="D1">
-        <v>3.402733801154898</v>
+        <v>1.914044976234436</v>
       </c>
       <c r="E1">
-        <v>2.785768042574033</v>
+        <v>0.9573580026626587</v>
       </c>
     </row>
   </sheetData>
